--- a/kctest.xlsx
+++ b/kctest.xlsx
@@ -230,13 +230,13 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="12.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="12.9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -671,11 +671,11 @@
   </sheetPr>
   <dimension ref="A1:F510"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.16"/>
   </cols>
@@ -879,7 +879,7 @@
       </c>
       <c r="E10" s="0" t="n">
         <f aca="false">IF(D10=1,B10+C10,B10-C10/$D$2)</f>
-        <v>6044066.96819856</v>
+        <v>6044066.96819857</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -889,7 +889,7 @@
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">IF(E10&lt;0,0,E10)</f>
-        <v>6044066.96819856</v>
+        <v>6044066.96819857</v>
       </c>
       <c r="C11" s="10" t="n">
         <f aca="false">$C$2*B11</f>
@@ -981,7 +981,7 @@
       </c>
       <c r="C15" s="10" t="n">
         <f aca="false">$C$2*B15</f>
-        <v>-6230900094.35347</v>
+        <v>-6230900094.35348</v>
       </c>
       <c r="D15" s="0" t="n">
         <f aca="true">IF(RAND()&lt;$B$2,1,0)</f>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="C16" s="10" t="n">
         <f aca="false">$C$2*B16</f>
-        <v>-30032938454.7837</v>
+        <v>-30032938454.7838</v>
       </c>
       <c r="D16" s="0" t="n">
         <f aca="true">IF(RAND()&lt;$B$2,1,0)</f>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="E16" s="0" t="n">
         <f aca="false">IF(D16=1,B16+C16,B16-C16/$D$2)</f>
-        <v>75789928456.5746</v>
+        <v>75789928456.5747</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1021,11 +1021,11 @@
       </c>
       <c r="B17" s="0" t="n">
         <f aca="false">IF(E16&lt;0,0,E16)</f>
-        <v>75789928456.5746</v>
+        <v>75789928456.5747</v>
       </c>
       <c r="C17" s="10" t="n">
         <f aca="false">$C$2*B17</f>
-        <v>-144758763352.057</v>
+        <v>-144758763352.058</v>
       </c>
       <c r="D17" s="0" t="n">
         <f aca="true">IF(RAND()&lt;$B$2,1,0)</f>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="C18" s="10" t="n">
         <f aca="false">$C$2*B18</f>
-        <v>-697737239356.917</v>
+        <v>-697737239356.918</v>
       </c>
       <c r="D18" s="0" t="n">
         <f aca="true">IF(RAND()&lt;$B$2,1,0)</f>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="E18" s="0" t="n">
         <f aca="false">IF(D18=1,B18+C18,B18-C18/$D$2)</f>
-        <v>1760781933874.52</v>
+        <v>1760781933874.53</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1065,11 +1065,11 @@
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">IF(E18&lt;0,0,E18)</f>
-        <v>1760781933874.52</v>
+        <v>1760781933874.53</v>
       </c>
       <c r="C19" s="10" t="n">
         <f aca="false">$C$2*B19</f>
-        <v>-3363093493700.34</v>
+        <v>-3363093493700.35</v>
       </c>
       <c r="D19" s="0" t="n">
         <f aca="true">IF(RAND()&lt;$B$2,1,0)</f>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="E19" s="0" t="n">
         <f aca="false">IF(D19=1,B19+C19,B19-C19/$D$2)</f>
-        <v>8486968921275.2</v>
+        <v>8486968921275.22</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1087,19 +1087,19 @@
       </c>
       <c r="B20" s="0" t="n">
         <f aca="false">IF(E19&lt;0,0,E19)</f>
-        <v>8486968921275.2</v>
+        <v>8486968921275.22</v>
       </c>
       <c r="C20" s="10" t="n">
         <f aca="false">$C$2*B20</f>
-        <v>-16210110639635.6</v>
+        <v>-16210110639635.7</v>
       </c>
       <c r="D20" s="0" t="n">
         <f aca="true">IF(RAND()&lt;$B$2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="0" t="n">
         <f aca="false">IF(D20=1,B20+C20,B20-C20/$D$2)</f>
-        <v>40907190200546.5</v>
+        <v>-7723141718360.45</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1109,11 +1109,11 @@
       </c>
       <c r="B21" s="0" t="n">
         <f aca="false">IF(E20&lt;0,0,E20)</f>
-        <v>40907190200546.5</v>
+        <v>0</v>
       </c>
       <c r="C21" s="10" t="n">
         <f aca="false">$C$2*B21</f>
-        <v>-78132733283043.8</v>
+        <v>-0</v>
       </c>
       <c r="D21" s="0" t="n">
         <f aca="true">IF(RAND()&lt;$B$2,1,0)</f>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="E21" s="0" t="n">
         <f aca="false">IF(D21=1,B21+C21,B21-C21/$D$2)</f>
-        <v>197172656766634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1131,19 +1131,19 @@
       </c>
       <c r="B22" s="0" t="n">
         <f aca="false">IF(E21&lt;0,0,E21)</f>
-        <v>197172656766634</v>
+        <v>0</v>
       </c>
       <c r="C22" s="10" t="n">
         <f aca="false">$C$2*B22</f>
-        <v>-376599774424271</v>
+        <v>-0</v>
       </c>
       <c r="D22" s="0" t="n">
         <f aca="true">IF(RAND()&lt;$B$2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="0" t="n">
         <f aca="false">IF(D22=1,B22+C22,B22-C22/$D$2)</f>
-        <v>-179427117657637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="D67" s="0" t="n">
         <f aca="true">IF(RAND()&lt;$B$2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" s="0" t="n">
         <f aca="false">IF(D67=1,B67+C67,B67-C67/$D$2)</f>
@@ -6177,7 +6177,7 @@
       </c>
       <c r="D251" s="0" t="n">
         <f aca="true">IF(RAND()&lt;$B$2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E251" s="0" t="n">
         <f aca="false">IF(D251=1,B251+C251,B251-C251/$D$2)</f>
@@ -7827,7 +7827,7 @@
       </c>
       <c r="D326" s="0" t="n">
         <f aca="true">IF(RAND()&lt;$B$2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E326" s="0" t="n">
         <f aca="false">IF(D326=1,B326+C326,B326-C326/$D$2)</f>
@@ -9719,7 +9719,7 @@
       </c>
       <c r="D412" s="0" t="n">
         <f aca="true">IF(RAND()&lt;$B$2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E412" s="0" t="n">
         <f aca="false">IF(D412=1,B412+C412,B412-C412/$D$2)</f>
@@ -10071,7 +10071,7 @@
       </c>
       <c r="D428" s="0" t="n">
         <f aca="true">IF(RAND()&lt;$B$2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E428" s="0" t="n">
         <f aca="false">IF(D428=1,B428+C428,B428-C428/$D$2)</f>
@@ -10137,7 +10137,7 @@
       </c>
       <c r="D431" s="0" t="n">
         <f aca="true">IF(RAND()&lt;$B$2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E431" s="0" t="n">
         <f aca="false">IF(D431=1,B431+C431,B431-C431/$D$2)</f>
@@ -10423,7 +10423,7 @@
       </c>
       <c r="D444" s="0" t="n">
         <f aca="true">IF(RAND()&lt;$B$2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E444" s="0" t="n">
         <f aca="false">IF(D444=1,B444+C444,B444-C444/$D$2)</f>
@@ -11281,7 +11281,7 @@
       </c>
       <c r="D483" s="0" t="n">
         <f aca="true">IF(RAND()&lt;$B$2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E483" s="0" t="n">
         <f aca="false">IF(D483=1,B483+C483,B483-C483/$D$2)</f>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="D507" s="0" t="n">
         <f aca="true">IF(RAND()&lt;$B$2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E507" s="0" t="n">
         <f aca="false">IF(D507=1,B507+C507,B507-C507/$D$2)</f>
